--- a/AI Projects/Weekly Trainning Report.xlsx
+++ b/AI Projects/Weekly Trainning Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\python-learnings\AI Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABCD874-477D-47DD-9098-7100700BAB4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342AC0C9-2584-43C0-866C-3555B2F30146}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>From</t>
   </si>
   <si>
-    <t>mylearningss10@gmail.com</t>
-  </si>
-  <si>
     <t>Training Name</t>
   </si>
   <si>
@@ -54,25 +51,23 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>Siddharthchobhe@gmail.com</t>
+    <t>Enter Employee Email</t>
+  </si>
+  <si>
+    <t>Enter Sender's Email</t>
+  </si>
+  <si>
+    <t>Enter Managers Email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,25 +105,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,7 +400,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,95 +415,91 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
         <v>45881</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3">
         <v>45659</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
         <v>45839</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
         <v>45881</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0BD9911D-0ABA-413B-BDD2-7D7F417D693B}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{2387871E-172B-444B-A788-87F8E22E36E0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>